--- a/Output/数据/Data.xlsx
+++ b/Output/数据/Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5DEF2F-7743-4A2F-97EF-28B016D9BEAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBFD754-E4E9-4F89-8F39-0D83478B713D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>温度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,22 @@
   </si>
   <si>
     <t>温度与欧姆内阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5C放电倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1C放电倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2C放电倍率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,7 +251,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -256,6 +281,1143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5C放电倍率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98199000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96987000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95979000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94764999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93125000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0D0-4DDF-B7DD-A6CBB37E64B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1C放电倍率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.98455999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97448999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95713999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94457000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93144000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91054999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90281999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89688999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87314000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E0D0-4DDF-B7DD-A6CBB37E64B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2C放电倍率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$2:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.95972000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93557000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91307000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89229999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87924000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86116000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84202999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83001999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77151999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E0D0-4DDF-B7DD-A6CBB37E64B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="440156112"/>
+        <c:axId val="440154800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="440156112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440154800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="440154800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440156112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>909637</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F76652-A3D1-4FBC-9E09-26606D79878A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,29 +1696,55 @@
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="5"/>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -593,8 +1781,29 @@
       <c r="O2" s="7">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>1</v>
+      </c>
+      <c r="R2" s="9">
+        <v>0.98401000000000005</v>
+      </c>
+      <c r="S2" s="9">
+        <v>0.97484999999999999</v>
+      </c>
+      <c r="T2" s="9">
+        <v>1</v>
+      </c>
+      <c r="U2" s="9">
+        <v>0.98455999999999999</v>
+      </c>
+      <c r="V2" s="10">
+        <v>0.95972000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -631,8 +1840,29 @@
       <c r="O3" s="7">
         <v>3.2330000000000002E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0.93110999999999999</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0.90610999999999997</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0.89988000000000001</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0.97448999999999997</v>
+      </c>
+      <c r="V3" s="10">
+        <v>0.93557000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -669,8 +1899,29 @@
       <c r="O4" s="7">
         <v>-3.7330000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0.86848000000000003</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0.84677999999999998</v>
+      </c>
+      <c r="S4" s="9">
+        <v>0.84314999999999996</v>
+      </c>
+      <c r="T4" s="9">
+        <v>0.98199000000000003</v>
+      </c>
+      <c r="U4" s="9">
+        <v>0.95713999999999999</v>
+      </c>
+      <c r="V4" s="10">
+        <v>0.91307000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -697,8 +1948,29 @@
       <c r="O5" s="7">
         <v>0.29699999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="8">
+        <v>-5</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.83718000000000004</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0.81564000000000003</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0.81267999999999996</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0.94457000000000002</v>
+      </c>
+      <c r="V5" s="10">
+        <v>0.89229999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -740,9 +2012,30 @@
       <c r="O6" s="7">
         <v>-3.9789999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="P6" s="8">
+        <v>-10</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.80313999999999997</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.77803999999999995</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0.77171000000000001</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0.96987000000000001</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0.93144000000000005</v>
+      </c>
+      <c r="V6" s="10">
+        <v>0.87924000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -781,9 +2074,30 @@
       <c r="O7" s="7">
         <v>0.99050000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="P7" s="8">
+        <v>-15</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.77488000000000001</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.74988999999999995</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0.73740000000000006</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0.96409</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0.91054999999999997</v>
+      </c>
+      <c r="V7" s="10">
+        <v>0.86116000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
       <c r="B8" s="2">
         <v>2949</v>
       </c>
@@ -808,9 +2122,30 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="P8" s="8">
+        <v>-20</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.74702000000000002</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0.71850000000000003</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0.70640000000000003</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0.95979000000000003</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0.90281999999999996</v>
+      </c>
+      <c r="V8" s="10">
+        <v>0.84202999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -826,26 +2161,68 @@
       <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="P9" s="8">
+        <v>-25</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.69060999999999995</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0.64080000000000004</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0.64100999999999997</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0.94764999999999999</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0.89688999999999997</v>
+      </c>
+      <c r="V9" s="10">
+        <v>0.83001999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="P10" s="8">
+        <v>-30</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0.52205000000000001</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0.50310999999999995</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0.93125000000000002</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0.87314000000000003</v>
+      </c>
+      <c r="V10" s="10">
+        <v>0.77151999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -863,7 +2240,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -881,7 +2258,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -899,7 +2276,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -972,14 +2349,14 @@
       <c r="F19" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1122,14 +2499,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -1217,5 +2594,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>